--- a/served_files/dataloader/Region 3 Data File.xlsx
+++ b/served_files/dataloader/Region 3 Data File.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>SHELF ID</t>
   </si>
@@ -33,12 +33,15 @@
     <t>clei</t>
   </si>
   <si>
-    <t>sda</t>
+    <t>132</t>
   </si>
   <si>
     <t>JUNIPER SRX345 DUAL CPE</t>
   </si>
   <si>
+    <t>TER SERVER</t>
+  </si>
+  <si>
     <t>SECURELINX SLC16</t>
   </si>
   <si>
@@ -66,87 +69,15 @@
     <t>0</t>
   </si>
   <si>
-    <t>RETH0.123</t>
-  </si>
-  <si>
-    <t>1M</t>
+    <t>LO1</t>
+  </si>
+  <si>
+    <t>UNDEFINED</t>
   </si>
   <si>
     <t>Logical</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>RETH20.6970</t>
-  </si>
-  <si>
-    <t>99M</t>
-  </si>
-  <si>
-    <t>TOROONXNPED10</t>
-  </si>
-  <si>
-    <t>TOROONXND15</t>
-  </si>
-  <si>
-    <t>RSP0</t>
-  </si>
-  <si>
-    <t>BDI6969</t>
-  </si>
-  <si>
-    <t>TOROONXN46W</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>RETH0.6970</t>
-  </si>
-  <si>
-    <t>RETH20.6969</t>
-  </si>
-  <si>
-    <t>RETH0.124</t>
-  </si>
-  <si>
-    <t>TOROONXN45W</t>
-  </si>
-  <si>
-    <t>XE-1/0/0.6970</t>
-  </si>
-  <si>
-    <t>EBCKONCB45W</t>
-  </si>
-  <si>
-    <t>EBCKONCBM00</t>
-  </si>
-  <si>
-    <t>XE-1/0/0.124</t>
-  </si>
-  <si>
-    <t>LO1</t>
-  </si>
-  <si>
-    <t>UNDEFINED</t>
-  </si>
-  <si>
-    <t>EBCKONCBPED10</t>
-  </si>
-  <si>
-    <t>BDI123</t>
-  </si>
-  <si>
-    <t>EBCKONCB46W</t>
-  </si>
-  <si>
-    <t>XE-14/0/0.124</t>
-  </si>
-  <si>
-    <t>XE-14/0/0.6970</t>
-  </si>
-  <si>
     <t>NETWORK</t>
   </si>
   <si>
@@ -168,33 +99,39 @@
     <t>SSHA</t>
   </si>
   <si>
+    <t>138.218.145.114</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>Terminal Server Port 1</t>
+  </si>
+  <si>
+    <t>138.218.145.158</t>
+  </si>
+  <si>
+    <t>Terminal Server Port 2</t>
+  </si>
+  <si>
+    <t>IP ADDRESS</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>HOSTNAME</t>
+  </si>
+  <si>
+    <t>C001645</t>
+  </si>
+  <si>
     <t>0.0.0.0</t>
   </si>
   <si>
-    <t>0.0.0.1</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>NMS PE - CPE</t>
-  </si>
-  <si>
-    <t>HOT Facility VPN - CPE</t>
-  </si>
-  <si>
-    <t>IP ADDRESS</t>
-  </si>
-  <si>
-    <t>CUSTOMER</t>
-  </si>
-  <si>
-    <t>HOSTNAME</t>
-  </si>
-  <si>
-    <t>C001645</t>
-  </si>
-  <si>
     <t>PATH</t>
   </si>
   <si>
@@ -202,33 +139,6 @@
   </si>
   <si>
     <t>CHANNEL STATUS</t>
-  </si>
-  <si>
-    <t>0001-GIG-E-EBCKONCBPED10-EBCKONCBM00-HOT</t>
-  </si>
-  <si>
-    <t>VLAN123</t>
-  </si>
-  <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>0001-10GIG-RE-EBCKONCB45W-EBCKONCBM00-HOT</t>
-  </si>
-  <si>
-    <t>VLAN124</t>
-  </si>
-  <si>
-    <t>0001-GIG-E-TOROONXNPED10-TOROONXND27-HOT</t>
-  </si>
-  <si>
-    <t>VLAN6969</t>
-  </si>
-  <si>
-    <t>0001-10GIG-RE-TOROONXN45W-TOROONXND27-HOT</t>
-  </si>
-  <si>
-    <t>VLAN6970</t>
   </si>
   <si>
     <t>OBJECT TYPE</t>
@@ -1263,13 +1173,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -1300,25 +1210,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1329,320 +1239,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1669,56 +1275,56 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1732,7 +1338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
@@ -1745,138 +1351,109 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1890,7 +1467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -1904,72 +1481,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1996,34 +1517,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
